--- a/biology/Botanique/Myrtoideae/Myrtoideae.xlsx
+++ b/biology/Botanique/Myrtoideae/Myrtoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Myrtoideae sont une sous-famille de plantes à fleurs de la famille des Myrtaceae. Elle comprend plus de cent-trente genres et plus de six-mille-cinq-cent espèces selon Catalogue of Life                                   (25 juin 2021)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Myrtoideae sont une sous-famille de plantes à fleurs de la famille des Myrtaceae. Elle comprend plus de cent-trente genres et plus de six-mille-cinq-cent espèces selon Catalogue of Life                                   (25 juin 2021).
 Les Psiloxyloideae sont la deuxième sous-famille de Myrtaceae.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille est décrite et nommée par le botaniste britannique Robert Sweet en 1827, qui la classe dans la famille des Myrtaceae sous le nom scientifique Myrtoideae, pour le genre type Myrtus.
-Les noms de familles suivants sont synonymes de Myrtoideae selon BioLib                    (25 juin 2021)[2] :
+Les noms de familles suivants sont synonymes de Myrtoideae selon BioLib                    (25 juin 2021) :
 Chamelauciaceae Rudophi
 Kaniaceae Nakai
 Leptospermaceae F. Rudolphi
@@ -549,9 +563,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (25 juin 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (25 juin 2021) :
 Backhousieae
 Chamelaucieae
 Eucalypteae
@@ -567,7 +583,7 @@
 Syzygieae
 Tristanieae
 Xanthostemoneae
-Selon l'INPN      (25 juin 2021)[4] (taxons recensés en France uniquement, outre-mer compris) :
+Selon l'INPN      (25 juin 2021) (taxons recensés en France uniquement, outre-mer compris) :
 Chamelaucieae DC., 1827
 Eucalypteae Peter G.Wilson, 2005
 Kanieae Peter G.Wilson ex Reveal, 2012
@@ -607,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (25 juin 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (25 juin 2021) :
 Acca O. Berg
 Accara Landrum
 Actinodium Schauer ex Schltdl.
